--- a/data/trans_orig/Q25B01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q25B01-Edad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>10.282919375604</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>8.988378758367254</v>
+        <v>8.988378758367253</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>10.66942705775754</v>
@@ -693,7 +693,7 @@
         <v>9.985748998513625</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>7.18121284412174</v>
+        <v>7.181212844121739</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.629240188780001</v>
+        <v>7.538532776945317</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.764962003472275</v>
+        <v>10.06787497361319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.315736434546928</v>
+        <v>5.051952723023716</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.043849436833308</v>
+        <v>7.224487950375656</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.961093326513413</v>
+        <v>7.814946726379517</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.506085090577438</v>
+        <v>7.479951858643643</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.697228991282009</v>
+        <v>5.287358439553827</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>8.312387931482625</v>
+        <v>8.16141764294634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9.539218566688524</v>
+        <v>9.479829822520916</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7.687537961538627</v>
+        <v>7.806345250694466</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>4.159735611687082</v>
+        <v>4.097823502961353</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.30379253045798</v>
+        <v>14.43345546588185</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.48327070269567</v>
+        <v>18.53901463374145</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.89656318325493</v>
+        <v>14.56234049200783</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>4.999999999999999</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>13.91988496123209</v>
+        <v>14.5641933492297</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.03310108423138</v>
+        <v>16.4662362342723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.41052534422037</v>
+        <v>13.26463988169494</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.31554999238298</v>
+        <v>12.75641508874816</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.36748622722733</v>
+        <v>13.11444015844083</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15.80365318845439</v>
+        <v>15.71070625875809</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12.66127132794823</v>
+        <v>12.65443411854584</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>11.26250926099408</v>
+        <v>11.50803174006296</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>10.4763481938404</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>7.801444751868815</v>
+        <v>7.801444751868813</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>11.95245093464934</v>
@@ -829,7 +829,7 @@
         <v>11.68728666644531</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>8.46645699122506</v>
+        <v>8.466456991225062</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>13.35464960314907</v>
+        <v>13.1957450127381</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>13.92499185215409</v>
+        <v>13.64227417156835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.93837244777852</v>
+        <v>10.98709219410391</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.446258863965491</v>
+        <v>5.291674710540127</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>9.008038196360813</v>
+        <v>8.937089877523277</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>9.687750421547754</v>
+        <v>9.631712877520162</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.884270842713683</v>
+        <v>8.925261188861253</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>5.625278171717826</v>
+        <v>5.532783472571796</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>10.7993002999547</v>
+        <v>10.84539140180112</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12.13380050887985</v>
+        <v>12.25859323147857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.29151368729101</v>
+        <v>10.28691045863543</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.216652153286662</v>
+        <v>6.236978510166794</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.91113316702838</v>
+        <v>17.74152979548229</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.510072112914</v>
+        <v>19.76627994066041</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14.99518509420604</v>
+        <v>15.35478784184701</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.99276044748677</v>
+        <v>13.44284469444541</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>11.47778363613842</v>
+        <v>11.30248174322528</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>13.57057084629233</v>
+        <v>13.68663854317831</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.2721064045341</v>
+        <v>12.43095242278438</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.67948076090718</v>
+        <v>11.14619284269575</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>13.29938922011208</v>
+        <v>13.27978948764368</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>15.58014570970709</v>
+        <v>15.74143060322908</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13.06488629411473</v>
+        <v>13.04355636898527</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>10.81497465180991</v>
+        <v>10.83973378590729</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>15.08060943348214</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>12.99180653302837</v>
+        <v>12.99180653302838</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.57606148627173</v>
+        <v>18.70020928674813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.70584855618336</v>
+        <v>16.83401712978364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.52363302418706</v>
+        <v>14.61738831125922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.53710078731566</v>
+        <v>13.27209763850941</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.813634423939385</v>
+        <v>9.689825727878379</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.28019058849241</v>
+        <v>12.2921469625523</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>11.93597678101631</v>
+        <v>12.05822990535776</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.608159608688943</v>
+        <v>8.5670479639394</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.12127616406449</v>
+        <v>15.03519451407257</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14.95563531140809</v>
+        <v>15.02340937786323</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13.74422873812222</v>
+        <v>13.6313288724426</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>11.29277305938435</v>
+        <v>11.40045821184773</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.51001969264913</v>
+        <v>23.58039271959658</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.11080263832146</v>
+        <v>21.35580535026084</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.27805279773944</v>
+        <v>19.69838715850671</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.50908568497715</v>
+        <v>19.62626364672586</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>14.35254882356336</v>
+        <v>14.31911578500325</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>16.79746815555962</v>
+        <v>17.14969966276021</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.74102807988049</v>
+        <v>15.81684820408141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>12.26607042298554</v>
+        <v>12.27149178907465</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>18.77187786773354</v>
+        <v>18.65306652446704</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.20607165085876</v>
+        <v>18.26820983748162</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16.75384355588025</v>
+        <v>16.69643156497717</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>14.86346249766124</v>
+        <v>15.01733224992194</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>17.61703381930906</v>
+        <v>17.54162368909228</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>20.42433031907551</v>
+        <v>20.41420590534987</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20.84547575685712</v>
+        <v>20.55797484589406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.92718998547358</v>
+        <v>17.98274232852595</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>12.44922676831648</v>
+        <v>12.56415044872015</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.18851595853785</v>
+        <v>12.25452266258423</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>12.27301369476483</v>
+        <v>12.3255191201974</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>10.89599452648603</v>
+        <v>10.9083114623327</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.54384030023075</v>
+        <v>16.37941597625248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.85303884019355</v>
+        <v>18.04204049758467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17.67520789706582</v>
+        <v>17.64010261013886</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>15.09698503833099</v>
+        <v>15.16614672307548</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.89328244876367</v>
+        <v>21.77022668418292</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>24.58640498535772</v>
+        <v>24.48373157136843</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>26.34750787479876</v>
+        <v>26.11418999477298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.56740152860227</v>
+        <v>23.13308133483341</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.58258036755717</v>
+        <v>18.28430405399865</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.08360210697646</v>
+        <v>16.21218183247147</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.5677237352256</v>
+        <v>16.72998981051159</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.81634764608153</v>
+        <v>13.85174069445106</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>19.80093140066124</v>
+        <v>19.85906026888417</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21.00020128103486</v>
+        <v>21.07221642708191</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21.35872030288346</v>
+        <v>21.5185681786142</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.55562221869673</v>
+        <v>18.5765868679556</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>23.4813152192888</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20.91343825269065</v>
+        <v>20.91343825269066</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>16.86226689806864</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>23.35232187336628</v>
+        <v>23.47137206752533</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.30103147016993</v>
+        <v>22.39405401511749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20.65990388014972</v>
+        <v>20.83555788074322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19.11719009524263</v>
+        <v>19.10417876377057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>13.21376453718749</v>
+        <v>13.41503526982517</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>10.94893923562125</v>
+        <v>10.81345451068099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>12.17492142842453</v>
+        <v>12.35355822855889</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>12.22239743079963</v>
+        <v>12.22975010182271</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>22.51949163173176</v>
+        <v>22.51862735087369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20.02229659088277</v>
+        <v>19.72220011454538</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18.76818736461954</v>
+        <v>18.98481387738317</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.96332338366909</v>
+        <v>17.11159479972788</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>28.25936165454133</v>
+        <v>28.32891457212648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>27.98967327185879</v>
+        <v>28.42756873501356</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.120420899776</v>
+        <v>26.4616989352016</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.52178121896672</v>
+        <v>22.74383501113851</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>21.50226833648797</v>
+        <v>21.48561508358824</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.9735674932719</v>
+        <v>16.92670889228051</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.43305989833091</v>
+        <v>18.08323908224352</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.25069619798706</v>
+        <v>15.51991418367088</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>27.16081297252452</v>
+        <v>26.88935526941467</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24.48729500555605</v>
+        <v>24.48694488005455</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23.2156220789829</v>
+        <v>23.77489917464732</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>19.64367528437762</v>
+        <v>19.73833878676002</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>22.64016254555426</v>
+        <v>22.50657361684323</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>26.15078176958862</v>
+        <v>26.36077628554314</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21.48652992291997</v>
+        <v>21.47972174336038</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21.9918363078972</v>
+        <v>21.85573780056189</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>10.61726487774732</v>
+        <v>10.53454983959254</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.22987917694953</v>
+        <v>9.625979781348953</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>10.07360257451643</v>
+        <v>10.05813272684564</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>12.82154559520887</v>
+        <v>13.0860951442927</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>21.47534458014118</v>
+        <v>21.40252202807285</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25.74217378701082</v>
+        <v>25.67754135390679</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19.76324834200247</v>
+        <v>19.65647172108311</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>20.43137619964059</v>
+        <v>20.55927240479813</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.76704173913733</v>
+        <v>26.86484750735715</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>32.54866257985482</v>
+        <v>32.59678617681693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27.08083367669692</v>
+        <v>26.71450822160462</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25.8744838902336</v>
+        <v>26.07946281105351</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>23.04682323395068</v>
+        <v>21.85571892842061</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>18.64440099955598</v>
+        <v>18.58299428110156</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>19.40202841833463</v>
+        <v>19.26415972563972</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>17.72371516418384</v>
+        <v>17.936011795864</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>25.68711688309957</v>
+        <v>25.61629609206279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31.51664286191211</v>
+        <v>31.83470748621767</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24.49602606587476</v>
+        <v>24.73492322081831</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>23.89800256928195</v>
+        <v>24.11773138839417</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>22.58882595351978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20.526650369271</v>
+        <v>20.52665036927101</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>15.45892467577585</v>
@@ -1497,7 +1497,7 @@
         <v>17.22953625553748</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>17.63437648741367</v>
+        <v>17.63437648741368</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>23.43348404564884</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.83735663241382</v>
+        <v>21.86642950343966</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>21.19161747440659</v>
+        <v>21.10777459475417</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20.43624911234963</v>
+        <v>20.39099738366763</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18.80411900396867</v>
+        <v>18.70751567358959</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.267049214594619</v>
+        <v>8.974982448468142</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.028446168691659</v>
+        <v>6.884351806211251</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>10</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12.90964077089649</v>
+        <v>13.2811167505162</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>21.26276621834254</v>
+        <v>21.23272384720796</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20.5877297569887</v>
+        <v>20.680615476596</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20.36786716953215</v>
+        <v>20.2642537709803</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>18.33962300692306</v>
+        <v>18.34017878676186</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>27.07771670399714</v>
+        <v>27.07491362200549</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>25.97479602304792</v>
+        <v>25.62974424958336</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25.52191321441687</v>
+        <v>25.77286194701209</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22.64339310867022</v>
+        <v>22.29338090041469</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.80649777818127</v>
+        <v>19.2365229840895</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>17.84916212670218</v>
+        <v>17.26721036289534</v>
       </c>
       <c r="I24" s="5" t="n">
         <v>20</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>22.82680066516998</v>
+        <v>22.64610068835359</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>26.05646240709432</v>
+        <v>26.39265813899453</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25.17813127003109</v>
+        <v>25.41062611286874</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>25.2722949124039</v>
+        <v>25.25277550172384</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>21.97748863207682</v>
+        <v>22.07802304363003</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>21.2172424411048</v>
+        <v>21.41289457417686</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>22.07454994726944</v>
+        <v>21.99371966756952</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>20.38443395249116</v>
+        <v>20.46335378456387</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19.58704997457354</v>
+        <v>19.5900292590095</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>11.59858788713487</v>
+        <v>11.59078314957636</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>12.43753413742431</v>
+        <v>12.42725313662921</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>12.40949625795766</v>
+        <v>12.33810767129846</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>11.47041565613183</v>
+        <v>11.51750740735894</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>18.74413814316164</v>
+        <v>18.74158074499731</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19.24914420616508</v>
+        <v>19.2408168882192</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17.76633395943307</v>
+        <v>17.84661239887019</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>16.9347903798229</v>
+        <v>16.9392520078307</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.36552868624295</v>
+        <v>23.47107992882212</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.30099126651498</v>
+        <v>24.24703006013635</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22.72632639639552</v>
+        <v>22.82103586617465</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>21.54754125953756</v>
+        <v>21.65494604548228</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>13.85221239069861</v>
+        <v>13.70280423409532</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>14.51757531209368</v>
+        <v>14.60007082367444</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>14.50432441461162</v>
+        <v>14.36992166997355</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>13.1933273541332</v>
+        <v>13.19497880367742</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>20.47459051832728</v>
+        <v>20.42162225816458</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>20.97363725144908</v>
+        <v>20.97506188275799</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>19.59409607174818</v>
+        <v>19.59425061144594</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>18.40541582527517</v>
+        <v>18.46113828384447</v>
       </c>
     </row>
     <row r="28">
